--- a/src/backend/BioCalc - Planilha.xlsx
+++ b/src/backend/BioCalc - Planilha.xlsx
@@ -726,7 +726,7 @@
         <v>Tipo de Biomassa (Ex. Pinus, Casca de amendoim, etc.)</v>
       </c>
       <c r="E33" t="str">
-        <v>Casca de Amendoin</v>
+        <v>Resíduo de Eucaliptus</v>
       </c>
       <c r="G33" t="str">
         <v>Selecionar na lista suspensa</v>
@@ -781,7 +781,7 @@
         <v>Entrada de amido de milho</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="G38" t="str">
         <v>kg / MJ de biocombustível</v>
